--- a/파일/종현/ppt내 그래프 데이터.xlsx
+++ b/파일/종현/ppt내 그래프 데이터.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="9225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="9225" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="분류 목적" sheetId="2" r:id="rId1"/>
+    <sheet name="문헌조사" sheetId="1" r:id="rId2"/>
+    <sheet name="분석개요" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>1월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,10 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023년 항공통계 국내편</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>국내선 여객 운송실적 (월별) p.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,15 +178,100 @@
     <t>'22/'19(%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>간식류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농수출산품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>향수, 화장품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>패션잡화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통 민예품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석/액세서리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인삼, 한약재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한류스타 관련상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식도락</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연경관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티레킹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박물관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>농림어업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스업(관광)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스업(관광외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -240,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,16 +333,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,6 +357,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9843"/>
+      <color rgb="FFF68514"/>
       <color rgb="FFFFC526"/>
       <color rgb="FFFF7074"/>
       <color rgb="FF1C98FF"/>
@@ -290,6 +378,644 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9843"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분류 목적'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>간식류</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>농수출산품</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>담배</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>향수, 화장품</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>패션잡화</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>전통 민예품</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>보석/액세서리</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>의류</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>인삼, 한약재</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>한류스타 관련상품</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분류 목적'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B076-4756-9966-1FC953EB5BB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="477443152"/>
+        <c:axId val="477439544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="477443152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477439544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477439544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="477443152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF9843"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'분류 목적'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>식도락</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>자연경관</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>쇼핑</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>티레킹</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>박물관</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'분류 목적'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EB9-4092-BE62-04576C0DE62D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="488526200"/>
+        <c:axId val="488523576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="488526200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488523576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488523576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="488526200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -396,7 +1122,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>문헌조사!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -419,7 +1145,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$16</c:f>
+              <c:f>문헌조사!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -463,7 +1189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$16</c:f>
+              <c:f>문헌조사!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -518,7 +1244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>문헌조사!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -541,7 +1267,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$16</c:f>
+              <c:f>문헌조사!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -585,7 +1311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$16</c:f>
+              <c:f>문헌조사!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -640,7 +1366,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>문헌조사!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -663,7 +1389,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$16</c:f>
+              <c:f>문헌조사!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -707,7 +1433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$16</c:f>
+              <c:f>문헌조사!$D$5:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -762,7 +1488,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>문헌조사!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -785,7 +1511,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$16</c:f>
+              <c:f>문헌조사!$A$5:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -829,7 +1555,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$16</c:f>
+              <c:f>문헌조사!$E$5:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1083,7 +1809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1190,7 +1916,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$50</c:f>
+              <c:f>문헌조사!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1939,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$62</c:f>
+              <c:f>문헌조사!$A$51:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1257,7 +1983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$B$62</c:f>
+              <c:f>문헌조사!$B$51:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1312,7 +2038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$50</c:f>
+              <c:f>문헌조사!$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,7 +2061,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$62</c:f>
+              <c:f>문헌조사!$A$51:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1379,7 +2105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$51:$C$62</c:f>
+              <c:f>문헌조사!$C$51:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1434,7 +2160,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$50</c:f>
+              <c:f>문헌조사!$D$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1457,7 +2183,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$62</c:f>
+              <c:f>문헌조사!$A$51:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1501,7 +2227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$51:$D$62</c:f>
+              <c:f>문헌조사!$D$51:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1556,7 +2282,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$50</c:f>
+              <c:f>문헌조사!$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1579,7 +2305,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$62</c:f>
+              <c:f>문헌조사!$A$51:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1623,7 +2349,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$51:$E$62</c:f>
+              <c:f>문헌조사!$E$51:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1875,7 +2601,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1959,7 +2685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$66</c:f>
+              <c:f>문헌조사!$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1980,7 +2706,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$67:$A$70</c:f>
+              <c:f>문헌조사!$A$67:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2000,7 +2726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$B$70</c:f>
+              <c:f>문헌조사!$B$67:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2030,7 +2756,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$66</c:f>
+              <c:f>문헌조사!$C$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2051,7 +2777,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$67:$A$70</c:f>
+              <c:f>문헌조사!$A$67:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2071,7 +2797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$67:$C$70</c:f>
+              <c:f>문헌조사!$C$67:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2101,7 +2827,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$66</c:f>
+              <c:f>문헌조사!$D$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2122,7 +2848,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$67:$A$70</c:f>
+              <c:f>문헌조사!$A$67:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2142,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$67:$D$70</c:f>
+              <c:f>문헌조사!$D$67:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2370,7 +3096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2455,7 +3181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$79</c:f>
+              <c:f>문헌조사!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2565,6 +3291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B72C-4283-935E-29C1B0416920}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -2585,7 +3316,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$78:$F$78</c:f>
+              <c:f>문헌조사!$B$78:$F$78</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2608,7 +3339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$79:$F$79</c:f>
+              <c:f>문헌조사!$B$79:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2695,7 +3426,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="532900824"/>
-        <c:crossesAt val="100000"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2874,7 +3605,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2967,7 +3698,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
+              <c:f>문헌조사!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3099,7 +3830,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:f>문헌조사!$B$20:$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3122,7 +3853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:f>문헌조사!$B$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3380,7 +4111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3475,7 +4206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$91</c:f>
+              <c:f>문헌조사!$A$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3499,7 +4230,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$90:$M$90</c:f>
+              <c:f>문헌조사!$B$90:$M$90</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3543,7 +4274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$91:$M$91</c:f>
+              <c:f>문헌조사!$B$91:$M$91</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3597,7 +4328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$92</c:f>
+              <c:f>문헌조사!$A$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3621,7 +4352,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$90:$M$90</c:f>
+              <c:f>문헌조사!$B$90:$M$90</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3665,7 +4396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$92:$M$92</c:f>
+              <c:f>문헌조사!$B$92:$M$92</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3719,7 +4450,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$93</c:f>
+              <c:f>문헌조사!$A$93</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3740,7 +4471,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$90:$M$90</c:f>
+              <c:f>문헌조사!$B$90:$M$90</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3784,7 +4515,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$93:$M$93</c:f>
+              <c:f>문헌조사!$B$93:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3854,7 +4585,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$94</c:f>
+              <c:f>문헌조사!$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3879,7 +4610,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$90:$M$90</c:f>
+              <c:f>문헌조사!$B$90:$M$90</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3923,7 +4654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$94:$M$94</c:f>
+              <c:f>문헌조사!$B$94:$M$94</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ ;[Red]\-0.0\ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -3978,7 +4709,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$95</c:f>
+              <c:f>문헌조사!$A$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4001,7 +4732,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$90:$M$90</c:f>
+              <c:f>문헌조사!$B$90:$M$90</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4045,7 +4776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$95:$M$95</c:f>
+              <c:f>문헌조사!$B$95:$M$95</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ ;[Red]\-0.0\ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -4358,7 +5089,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4486,7 +5217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$34</c:f>
+              <c:f>문헌조사!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4507,7 +5238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>문헌조사!$B$33:$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4551,7 +5282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$M$34</c:f>
+              <c:f>문헌조사!$B$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4605,7 +5336,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35</c:f>
+              <c:f>문헌조사!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4626,7 +5357,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>문헌조사!$B$33:$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4670,7 +5401,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$M$35</c:f>
+              <c:f>문헌조사!$B$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4724,7 +5455,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36</c:f>
+              <c:f>문헌조사!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4745,7 +5476,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>문헌조사!$B$33:$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4789,7 +5520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$L$36</c:f>
+              <c:f>문헌조사!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4856,7 +5587,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37</c:f>
+              <c:f>문헌조사!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4879,7 +5610,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>문헌조사!$B$33:$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4923,7 +5654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$L$37</c:f>
+              <c:f>문헌조사!$B$37:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ ;[Red]\-0.0\ </c:formatCode>
                 <c:ptCount val="11"/>
@@ -4975,7 +5706,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$38</c:f>
+              <c:f>문헌조사!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4998,7 +5729,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$33:$M$33</c:f>
+              <c:f>문헌조사!$B$33:$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5042,7 +5773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$M$38</c:f>
+              <c:f>문헌조사!$B$38:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ ;[Red]\-0.0\ </c:formatCode>
                 <c:ptCount val="12"/>
@@ -5635,8 +6366,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5744,11 +6555,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5759,11 +6565,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5795,9 +6596,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6152,7 +6950,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6260,11 +7058,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6275,11 +7068,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6311,9 +7099,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6668,7 +7453,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6776,6 +7561,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6786,6 +7576,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6817,6 +7612,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7171,7 +7969,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7279,6 +8077,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7289,6 +8092,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7320,6 +8128,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9182,7 +9993,1090 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4483E7-1905-4BE4-A46D-E02884F78B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323169</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6595CE4-7573-4D44-93FB-38C6A83AC6C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9740,10 +11634,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7">
+        <v>41.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9753,14 +11785,9 @@
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10006,7 +12033,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10090,7 +12117,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -10263,7 +12290,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5">
         <v>-42.9</v>
@@ -10304,7 +12331,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>23</v>
@@ -10399,7 +12426,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -10645,7 +12672,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -10767,7 +12794,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -10809,7 +12836,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10981,7 +13008,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B94" s="5">
         <v>-97.4</v>
@@ -11022,7 +13049,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="5">
         <v>-95.5</v>
@@ -11067,4 +13094,65 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>47.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>